--- a/analyzeLag/Week 0 Aged and Young Master.xlsx
+++ b/analyzeLag/Week 0 Aged and Young Master.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nischal\Documents\GitHub\BauerLabNischal\analyzeLag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93DC9E8-739A-4C84-B5AC-579D15F95580}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39B60265-6FFD-41B7-ABD7-2B2C6486FAD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -700,6 +700,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -716,7 +722,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -746,9 +752,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -757,6 +760,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1041,8 +1057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,12 +1078,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1389,32 +1405,32 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <v>181116</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="13" t="s">
+      <c r="D11" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="F11" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>68</v>
       </c>
       <c r="N11" s="5">
@@ -1425,32 +1441,32 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>181116</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="14" t="s">
+      <c r="F12" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12" s="13" t="s">
         <v>68</v>
       </c>
       <c r="N12" s="5">
@@ -1461,32 +1477,32 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>181116</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="13" t="s">
+      <c r="D13" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I13" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="14" t="s">
+      <c r="F13" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="13" t="s">
         <v>68</v>
       </c>
       <c r="N13" s="5">
@@ -1497,32 +1513,32 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>181116</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="13" t="s">
+      <c r="D14" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I14" s="15" t="s">
+      <c r="F14" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>68</v>
       </c>
       <c r="N14" s="5">
@@ -1533,32 +1549,32 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <v>181116</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="I15" s="15" t="s">
+      <c r="F15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>68</v>
       </c>
       <c r="N15" s="5">
@@ -1568,39 +1584,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:15" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
         <v>181116</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="N16" s="5">
-        <v>2</v>
-      </c>
-      <c r="O16" s="5">
+      <c r="F16" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="N16" s="19">
+        <v>2</v>
+      </c>
+      <c r="O16" s="19">
         <v>3</v>
       </c>
     </row>
@@ -2248,12 +2264,12 @@
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="11"/>
-      <c r="C36" s="11"/>
-      <c r="D36" s="11"/>
+      <c r="B36" s="15"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="H36" s="3"/>
@@ -3364,12 +3380,12 @@
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A74" s="11" t="s">
+      <c r="A74" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B74" s="11"/>
-      <c r="C74" s="11"/>
-      <c r="D74" s="11"/>
+      <c r="B74" s="15"/>
+      <c r="C74" s="15"/>
+      <c r="D74" s="15"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="H74" s="3"/>
@@ -4264,12 +4280,12 @@
       </c>
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A103" s="11" t="s">
+      <c r="A103" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="11"/>
-      <c r="C103" s="11"/>
-      <c r="D103" s="11"/>
+      <c r="B103" s="15"/>
+      <c r="C103" s="15"/>
+      <c r="D103" s="15"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="H103" s="3"/>
@@ -5119,12 +5135,12 @@
       </c>
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A130" s="11" t="s">
+      <c r="A130" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
       <c r="H130" s="3"/>
